--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H2">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I2">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J2">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N2">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O2">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P2">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q2">
-        <v>0.1293106425072222</v>
+        <v>0.146439514652</v>
       </c>
       <c r="R2">
-        <v>1.163795782565</v>
+        <v>1.317955631868</v>
       </c>
       <c r="S2">
-        <v>0.0001020360886382361</v>
+        <v>7.67744700835931E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001020360886382361</v>
+        <v>7.67744700835931E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H3">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I3">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J3">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.070426</v>
       </c>
       <c r="O3">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P3">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q3">
-        <v>0.04674604783622222</v>
+        <v>0.151410125068</v>
       </c>
       <c r="R3">
-        <v>0.420714430526</v>
+        <v>1.362691125612</v>
       </c>
       <c r="S3">
-        <v>3.688624376170425E-05</v>
+        <v>7.938043324583973E-05</v>
       </c>
       <c r="T3">
-        <v>3.688624376170425E-05</v>
+        <v>7.938043324583973E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H4">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I4">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J4">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N4">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O4">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P4">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q4">
-        <v>14.28189201544011</v>
+        <v>66.07772758008201</v>
       </c>
       <c r="R4">
-        <v>128.537028138961</v>
+        <v>594.6995482207382</v>
       </c>
       <c r="S4">
-        <v>0.01126951634725481</v>
+        <v>0.03464285258896503</v>
       </c>
       <c r="T4">
-        <v>0.01126951634725481</v>
+        <v>0.03464285258896503</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>369.083199</v>
       </c>
       <c r="I5">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J5">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N5">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O5">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P5">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q5">
-        <v>7.989215934798334</v>
+        <v>2.793303668520667</v>
       </c>
       <c r="R5">
-        <v>71.902943413185</v>
+        <v>25.139733016686</v>
       </c>
       <c r="S5">
-        <v>0.006304108691034933</v>
+        <v>0.001464457250099892</v>
       </c>
       <c r="T5">
-        <v>0.006304108691034933</v>
+        <v>0.001464457250099892</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>369.083199</v>
       </c>
       <c r="I6">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J6">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>0.070426</v>
       </c>
       <c r="O6">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P6">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q6">
         <v>2.888117041419334</v>
@@ -821,10 +821,10 @@
         <v>25.993053372774</v>
       </c>
       <c r="S6">
-        <v>0.00227894750750623</v>
+        <v>0.001514165462247629</v>
       </c>
       <c r="T6">
-        <v>0.00227894750750623</v>
+        <v>0.001514165462247629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>369.083199</v>
       </c>
       <c r="I7">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J7">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N7">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O7">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P7">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q7">
-        <v>882.3799577242878</v>
+        <v>1260.419083575756</v>
       </c>
       <c r="R7">
-        <v>7941.41961951859</v>
+        <v>11343.7717521818</v>
       </c>
       <c r="S7">
-        <v>0.6962659672341343</v>
+        <v>0.6608052987251215</v>
       </c>
       <c r="T7">
-        <v>0.6962659672341343</v>
+        <v>0.6608052987251216</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H8">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I8">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J8">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N8">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O8">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P8">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q8">
-        <v>3.213692526936667</v>
+        <v>1.266702124902889</v>
       </c>
       <c r="R8">
-        <v>28.92323274243</v>
+        <v>11.400319124126</v>
       </c>
       <c r="S8">
-        <v>0.00253585172246153</v>
+        <v>0.0006640993356491738</v>
       </c>
       <c r="T8">
-        <v>0.00253585172246153</v>
+        <v>0.0006640993356491738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H9">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I9">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J9">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>0.070426</v>
       </c>
       <c r="O9">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P9">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q9">
-        <v>1.161756075774667</v>
+        <v>1.309697915970444</v>
       </c>
       <c r="R9">
-        <v>10.455804681972</v>
+        <v>11.787281243734</v>
       </c>
       <c r="S9">
-        <v>0.0009167153114805108</v>
+        <v>0.0006866409227534533</v>
       </c>
       <c r="T9">
-        <v>0.0009167153114805108</v>
+        <v>0.0006866409227534533</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H10">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I10">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J10">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N10">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O10">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P10">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q10">
-        <v>354.9406974601714</v>
+        <v>571.5724893882046</v>
       </c>
       <c r="R10">
-        <v>3194.466277141542</v>
+        <v>5144.152404493841</v>
       </c>
       <c r="S10">
-        <v>0.2800756361978529</v>
+        <v>0.2996607513444816</v>
       </c>
       <c r="T10">
-        <v>0.2800756361978529</v>
+        <v>0.2996607513444816</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H11">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I11">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J11">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,28 +1113,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N11">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O11">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P11">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q11">
-        <v>0.002429407988333333</v>
+        <v>0.001706740066222222</v>
       </c>
       <c r="R11">
-        <v>0.021864671895</v>
+        <v>0.015360660596</v>
       </c>
       <c r="S11">
-        <v>1.916990620645736E-06</v>
+        <v>8.947999074296173E-07</v>
       </c>
       <c r="T11">
-        <v>1.916990620645736E-06</v>
+        <v>8.947999074296174E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H12">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I12">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J12">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>0.070426</v>
       </c>
       <c r="O12">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P12">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q12">
-        <v>0.0008782356953333333</v>
+        <v>0.001764672107111111</v>
       </c>
       <c r="R12">
-        <v>0.007904121258</v>
+        <v>0.015882048964</v>
       </c>
       <c r="S12">
-        <v>6.929958239847886E-07</v>
+        <v>9.251721860504187E-07</v>
       </c>
       <c r="T12">
-        <v>6.929958239847886E-07</v>
+        <v>9.25172186050419E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H13">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I13">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J13">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N13">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O13">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P13">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q13">
-        <v>0.2683193113736667</v>
+        <v>0.7701302849428888</v>
       </c>
       <c r="R13">
-        <v>2.414873802363</v>
+        <v>6.931172564486</v>
       </c>
       <c r="S13">
-        <v>0.0002117246694303974</v>
+        <v>0.0004037594952586748</v>
       </c>
       <c r="T13">
-        <v>0.0002117246694303974</v>
+        <v>0.0004037594952586749</v>
       </c>
     </row>
   </sheetData>
